--- a/public/menu.xlsx
+++ b/public/menu.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\Dosanchutney\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\dosanchu\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A453A30-6702-4C85-9BED-03CF6804CAEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91A7584-8BCB-4AF9-B729-AF9D53742B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1048,10 +1048,10 @@
     <t>VEG DOSA</t>
   </si>
   <si>
-    <t>KIDS MENU</t>
-  </si>
-  <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>KID'S MENU</t>
   </si>
 </sst>
 </file>
@@ -1376,8 +1376,8 @@
   </sheetPr>
   <dimension ref="A1:AA1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40:F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1400,7 +1400,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>326</v>
@@ -2183,7 +2183,7 @@
         <v>95</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -2203,7 +2203,7 @@
         <v>97</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -2223,7 +2223,7 @@
         <v>99</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">

--- a/public/menu.xlsx
+++ b/public/menu.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\dosanchu\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91A7584-8BCB-4AF9-B729-AF9D53742B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C472287-2F16-467A-B1C4-56B311E86051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="341">
   <si>
     <t>Menu Item</t>
   </si>
@@ -259,9 +259,6 @@
     <t>Dosa sprinkled with spicy gunpowder and ghee, creating a burst of flavors.</t>
   </si>
   <si>
-    <t>MYSORE MASALA DOSA</t>
-  </si>
-  <si>
     <t>Dosa filled with spicy Mysore masala, providing a flavorful and spicy choice.</t>
   </si>
   <si>
@@ -400,18 +397,6 @@
     <t>Dosa filled with spiced vegetables and chicken, healthy and delicious.</t>
   </si>
   <si>
-    <t>LAMB MIX VEG DOSA</t>
-  </si>
-  <si>
-    <t>Dosa filled with spiced vegetables and lamb, rich and healthy.</t>
-  </si>
-  <si>
-    <t>BEEF MIX VEG DOSA</t>
-  </si>
-  <si>
-    <t>Dosa filled with spiced vegetables and beef, hearty and healthy.</t>
-  </si>
-  <si>
     <t>PAPER DOSA (ANY FILLING)</t>
   </si>
   <si>
@@ -886,15 +871,9 @@
     <t>COCONUT CHUTNEY</t>
   </si>
   <si>
-    <t>Creamy coconut chutney, perfect with dosas and idlis.</t>
-  </si>
-  <si>
     <t>TOMATO CHUTNEY</t>
   </si>
   <si>
-    <t>Spicy tomato chutney, flavorful and perfect with dosas and idlis.</t>
-  </si>
-  <si>
     <t>RICE</t>
   </si>
   <si>
@@ -1003,9 +982,6 @@
     <t>Category</t>
   </si>
   <si>
-    <t>Appetizer</t>
-  </si>
-  <si>
     <t>NON - VEG DOSA</t>
   </si>
   <si>
@@ -1051,7 +1027,22 @@
     <t>Description</t>
   </si>
   <si>
-    <t>KID'S MENU</t>
+    <t>APPETIZER</t>
+  </si>
+  <si>
+    <t>SEAFOOD CURRY</t>
+  </si>
+  <si>
+    <t>KID'S DOSA</t>
+  </si>
+  <si>
+    <t>MADRAS MASALA DOSA</t>
+  </si>
+  <si>
+    <t>Creamy coconut chutney, perfect with dosas and idly.</t>
+  </si>
+  <si>
+    <t>Spicy tomato chutney, flavorful and perfect with dosas and idly.</t>
   </si>
 </sst>
 </file>
@@ -1374,10 +1365,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA1006"/>
+  <dimension ref="A1:AA1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40:F42"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="E130" sqref="E130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1400,10 +1391,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1423,7 +1414,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1443,7 +1434,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1463,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1483,7 +1474,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1503,7 +1494,7 @@
         <v>17</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1523,7 +1514,7 @@
         <v>20</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1543,7 +1534,7 @@
         <v>23</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1563,7 +1554,7 @@
         <v>26</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1583,7 +1574,7 @@
         <v>28</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1603,7 +1594,7 @@
         <v>31</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1623,7 +1614,7 @@
         <v>33</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1643,7 +1634,7 @@
         <v>35</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1663,7 +1654,7 @@
         <v>38</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1683,7 +1674,7 @@
         <v>40</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1703,7 +1694,7 @@
         <v>43</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1723,7 +1714,7 @@
         <v>46</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1743,7 +1734,7 @@
         <v>48</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1763,7 +1754,7 @@
         <v>50</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1783,7 +1774,7 @@
         <v>52</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1803,7 +1794,7 @@
         <v>54</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1823,7 +1814,7 @@
         <v>57</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1843,7 +1834,7 @@
         <v>59</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1863,7 +1854,7 @@
         <v>62</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1883,7 +1874,7 @@
         <v>64</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1903,7 +1894,7 @@
         <v>66</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1923,7 +1914,7 @@
         <v>68</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1943,7 +1934,7 @@
         <v>70</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1963,7 +1954,7 @@
         <v>72</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1983,7 +1974,7 @@
         <v>74</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -2003,7 +1994,7 @@
         <v>76</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -2023,12 +2014,12 @@
         <v>78</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>79</v>
+        <v>338</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>5</v>
@@ -2040,15 +2031,15 @@
         <v>30</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>5</v>
@@ -2060,15 +2051,15 @@
         <v>56</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>5</v>
@@ -2080,15 +2071,15 @@
         <v>42</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>5</v>
@@ -2100,15 +2091,15 @@
         <v>45</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>9</v>
@@ -2120,15 +2111,15 @@
         <v>30</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>9</v>
@@ -2140,35 +2131,35 @@
         <v>42</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="4" t="s">
+      <c r="E39" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E39" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="F39" s="10" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>5</v>
@@ -2180,35 +2171,35 @@
         <v>25</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>9</v>
@@ -2217,18 +2208,18 @@
         <v>9</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>5</v>
@@ -2237,18 +2228,18 @@
         <v>9</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>5</v>
@@ -2257,38 +2248,38 @@
         <v>9</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>5</v>
@@ -2297,18 +2288,18 @@
         <v>9</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>5</v>
@@ -2317,18 +2308,18 @@
         <v>9</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>5</v>
@@ -2337,18 +2328,18 @@
         <v>9</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>5</v>
@@ -2360,15 +2351,15 @@
         <v>42</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>5</v>
@@ -2380,15 +2371,15 @@
         <v>45</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>5</v>
@@ -2400,15 +2391,15 @@
         <v>45</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>5</v>
@@ -2420,15 +2411,15 @@
         <v>42</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>5</v>
@@ -2437,38 +2428,38 @@
         <v>9</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>5</v>
@@ -2480,15 +2471,15 @@
         <v>42</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>5</v>
@@ -2500,15 +2491,15 @@
         <v>45</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>5</v>
@@ -2517,18 +2508,18 @@
         <v>9</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>5</v>
@@ -2537,18 +2528,18 @@
         <v>9</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>9</v>
@@ -2557,201 +2548,201 @@
         <v>9</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E61" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>137</v>
-      </c>
       <c r="F61" s="10" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E62" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="F62" s="10" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E63" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B63" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>141</v>
-      </c>
       <c r="F63" s="10" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E64" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>143</v>
-      </c>
       <c r="F64" s="10" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E65" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B65" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E65" s="3" t="s">
+      <c r="F65" s="10" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F65" s="10" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
+      <c r="B66" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E66" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E66" s="3" t="s">
+      <c r="F66" s="10" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="F66" s="10" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
+      <c r="B67" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E67" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>149</v>
-      </c>
       <c r="F67" s="10" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E68" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B68" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>151</v>
-      </c>
       <c r="F68" s="10" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>9</v>
@@ -2760,130 +2751,130 @@
         <v>45</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E70" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>155</v>
-      </c>
       <c r="F70" s="10" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E71" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B71" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>157</v>
-      </c>
       <c r="F71" s="10" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E72" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B72" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="4" t="s">
+      <c r="F72" s="10" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E72" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="F72" s="10" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
+      <c r="E73" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B73" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E73" s="5" t="s">
+      <c r="F73" s="10" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="F73" s="10" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
+      <c r="B74" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E74" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B74" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>163</v>
-      </c>
       <c r="F74" s="10" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>165</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -2897,13 +2888,13 @@
         <v>9</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>92</v>
+        <v>164</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>167</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -2917,133 +2908,133 @@
         <v>9</v>
       </c>
       <c r="D77" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E77" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="E77" s="3" t="s">
-        <v>170</v>
-      </c>
       <c r="F77" s="10" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>169</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>172</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B79" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>42</v>
+      <c r="B79" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>174</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B80" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="4" t="s">
+      <c r="B80" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E80" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="E80" s="3" t="s">
-        <v>177</v>
-      </c>
       <c r="F80" s="10" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E81" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>179</v>
-      </c>
       <c r="F81" s="10" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E82" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="F82" s="10" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>183</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -3057,13 +3048,13 @@
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>169</v>
+        <v>42</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>185</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -3077,98 +3068,98 @@
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E85" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="E85" s="3" t="s">
-        <v>188</v>
-      </c>
       <c r="F85" s="10" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E86" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>190</v>
-      </c>
       <c r="F86" s="10" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E87" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="F87" s="10" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F88" s="10" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E89" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>196</v>
-      </c>
       <c r="F89" s="10" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>5</v>
@@ -3180,370 +3171,370 @@
         <v>45</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E91" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>200</v>
-      </c>
       <c r="F91" s="10" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E92" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>202</v>
-      </c>
       <c r="F92" s="10" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E93" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>204</v>
-      </c>
       <c r="F93" s="10" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E94" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>206</v>
-      </c>
       <c r="F94" s="10" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E95" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>208</v>
-      </c>
       <c r="F95" s="10" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E96" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>210</v>
-      </c>
       <c r="F96" s="10" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E97" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>212</v>
-      </c>
       <c r="F97" s="10" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E98" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>214</v>
-      </c>
       <c r="F98" s="10" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E99" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>216</v>
-      </c>
       <c r="F99" s="10" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E100" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>218</v>
-      </c>
       <c r="F100" s="10" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E101" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>220</v>
-      </c>
       <c r="F101" s="10" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E102" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>222</v>
-      </c>
       <c r="F102" s="10" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E103" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>224</v>
-      </c>
       <c r="F103" s="10" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E104" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>226</v>
-      </c>
       <c r="F104" s="10" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E105" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>228</v>
-      </c>
       <c r="F105" s="10" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E106" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>230</v>
-      </c>
       <c r="F106" s="10" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E107" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>232</v>
-      </c>
       <c r="F107" s="10" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>187</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>234</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -3557,13 +3548,13 @@
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>236</v>
       </c>
       <c r="F109" s="10" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -3577,98 +3568,98 @@
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E110" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="E110" s="3" t="s">
-        <v>239</v>
-      </c>
       <c r="F110" s="10" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E111" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>241</v>
-      </c>
       <c r="F111" s="10" t="s">
-        <v>240</v>
+        <v>336</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E112" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>243</v>
-      </c>
       <c r="F112" s="10" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="113" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>238</v>
+        <v>300</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>245</v>
+        <v>301</v>
       </c>
       <c r="F113" s="10" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="114" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>238</v>
+        <v>302</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>247</v>
+        <v>303</v>
       </c>
       <c r="F114" s="10" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="115" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>248</v>
+        <v>304</v>
       </c>
       <c r="B115" s="6" t="s">
         <v>9</v>
@@ -3677,18 +3668,18 @@
         <v>9</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>249</v>
+        <v>305</v>
       </c>
       <c r="F115" s="10" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="116" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>250</v>
+        <v>306</v>
       </c>
       <c r="B116" s="6" t="s">
         <v>9</v>
@@ -3697,38 +3688,59 @@
         <v>9</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>251</v>
+        <v>307</v>
       </c>
       <c r="F116" s="10" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A117" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="B117" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C117" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E117" s="3" t="s">
-        <v>253</v>
+        <v>331</v>
+      </c>
+    </row>
+    <row r="117" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A117" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>309</v>
       </c>
       <c r="F117" s="10" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+      <c r="G117" s="7"/>
+      <c r="H117" s="7"/>
+      <c r="I117" s="7"/>
+      <c r="J117" s="7"/>
+      <c r="K117" s="7"/>
+      <c r="L117" s="7"/>
+      <c r="M117" s="7"/>
+      <c r="N117" s="7"/>
+      <c r="O117" s="7"/>
+      <c r="P117" s="7"/>
+      <c r="Q117" s="7"/>
+      <c r="R117" s="7"/>
+      <c r="S117" s="7"/>
+      <c r="T117" s="7"/>
+      <c r="U117" s="7"/>
+      <c r="V117" s="7"/>
+      <c r="W117" s="7"/>
+      <c r="X117" s="7"/>
+      <c r="Y117" s="7"/>
+      <c r="Z117" s="7"/>
+      <c r="AA117" s="7"/>
+    </row>
+    <row r="118" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>254</v>
+        <v>310</v>
       </c>
       <c r="B118" s="6" t="s">
         <v>5</v>
@@ -3737,218 +3749,218 @@
         <v>9</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>19</v>
+        <v>311</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>255</v>
+        <v>312</v>
       </c>
       <c r="F118" s="10" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="119" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>256</v>
+        <v>313</v>
       </c>
       <c r="B119" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D119" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="F119" s="10" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="120" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="F120" s="10" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="121" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="F121" s="10" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="122" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E119" s="3" t="s">
+      <c r="E122" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="F122" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="123" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="F123" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="124" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="F124" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="125" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D125" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="F119" s="10" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A120" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="B120" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="E120" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="F120" s="10" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A121" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="B121" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C121" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="E121" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F121" s="10" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A122" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C122" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D122" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="E122" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F122" s="10" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A123" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="B123" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C123" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D123" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E123" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="F123" s="10" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A124" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="B124" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C124" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D124" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E124" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="F124" s="10" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A125" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="B125" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C125" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D125" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="E125" s="3" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="F125" s="10" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="126" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="B126" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C126" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D126" s="6" t="s">
-        <v>19</v>
+        <v>282</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>273</v>
+        <v>339</v>
       </c>
       <c r="F126" s="10" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="127" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B127" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C127" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D127" s="6" t="s">
-        <v>19</v>
+        <v>283</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>275</v>
+        <v>340</v>
       </c>
       <c r="F127" s="10" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="128" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="B128" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C128" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D128" s="6" t="s">
-        <v>277</v>
+        <v>284</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="F128" s="10" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>5</v>
@@ -3957,118 +3969,118 @@
         <v>5</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="F129" s="10" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="F130" s="10" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>176</v>
+        <v>272</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="F131" s="10" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>262</v>
+        <v>171</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="F132" s="10" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>176</v>
+        <v>254</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="F133" s="10" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="F134" s="10" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>5</v>
@@ -4077,198 +4089,198 @@
         <v>5</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>176</v>
+        <v>19</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="F135" s="10" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>19</v>
+        <v>256</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>257</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>294</v>
+        <v>258</v>
       </c>
       <c r="F136" s="10" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>176</v>
+        <v>259</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>257</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="F137" s="10" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>277</v>
+        <v>261</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>298</v>
+        <v>262</v>
       </c>
       <c r="F138" s="10" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>176</v>
+        <v>263</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="F139" s="10" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>259</v>
+        <v>265</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>302</v>
+        <v>266</v>
       </c>
       <c r="F140" s="10" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>12</v>
+        <v>267</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="F141" s="10" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D142" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D142" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>306</v>
+        <v>270</v>
       </c>
       <c r="F142" s="10" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C143" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>56</v>
+        <v>272</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="F143" s="10" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>309</v>
+        <v>243</v>
       </c>
       <c r="B144" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>310</v>
+        <v>244</v>
       </c>
       <c r="F144" s="10" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="145" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>311</v>
+        <v>245</v>
       </c>
       <c r="B145" s="6" t="s">
         <v>9</v>
@@ -4277,18 +4289,18 @@
         <v>9</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>312</v>
+        <v>246</v>
       </c>
       <c r="F145" s="10" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="146" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>313</v>
+        <v>247</v>
       </c>
       <c r="B146" s="6" t="s">
         <v>9</v>
@@ -4297,177 +4309,126 @@
         <v>9</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>314</v>
+        <v>248</v>
       </c>
       <c r="F146" s="10" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="147" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A147" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="B147" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C147" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D147" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E147" s="7" t="s">
-        <v>316</v>
+        <v>328</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>250</v>
       </c>
       <c r="F147" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="G147" s="7"/>
-      <c r="H147" s="7"/>
-      <c r="I147" s="7"/>
-      <c r="J147" s="7"/>
-      <c r="K147" s="7"/>
-      <c r="L147" s="7"/>
-      <c r="M147" s="7"/>
-      <c r="N147" s="7"/>
-      <c r="O147" s="7"/>
-      <c r="P147" s="7"/>
-      <c r="Q147" s="7"/>
-      <c r="R147" s="7"/>
-      <c r="S147" s="7"/>
-      <c r="T147" s="7"/>
-      <c r="U147" s="7"/>
-      <c r="V147" s="7"/>
-      <c r="W147" s="7"/>
-      <c r="X147" s="7"/>
-      <c r="Y147" s="7"/>
-      <c r="Z147" s="7"/>
-      <c r="AA147" s="7"/>
-    </row>
-    <row r="148" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>317</v>
+        <v>251</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C148" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>318</v>
+        <v>37</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>319</v>
+        <v>252</v>
       </c>
       <c r="F148" s="10" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="149" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>320</v>
+        <v>253</v>
       </c>
       <c r="B149" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>42</v>
+        <v>254</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>321</v>
+        <v>255</v>
       </c>
       <c r="F149" s="10" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="150" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A150" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="B150" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C150" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D150" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E150" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="F150" s="10" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="151" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A151" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="B151" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C151" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D151" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E151" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="F151" s="10" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="152" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B150" s="2"/>
+      <c r="C150" s="2"/>
+      <c r="D150" s="2"/>
+    </row>
+    <row r="151" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B151" s="2"/>
+      <c r="C151" s="2"/>
+      <c r="D151" s="2"/>
+    </row>
+    <row r="152" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
     </row>
-    <row r="153" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
     </row>
-    <row r="154" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
     </row>
-    <row r="155" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
     </row>
-    <row r="156" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
     </row>
-    <row r="157" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
     </row>
-    <row r="158" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B158" s="2"/>
-      <c r="C158" s="2"/>
-      <c r="D158" s="2"/>
-    </row>
-    <row r="159" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B159" s="2"/>
-      <c r="C159" s="2"/>
-      <c r="D159" s="2"/>
-    </row>
-    <row r="160" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B158" s="6"/>
+      <c r="C158" s="6"/>
+      <c r="D158" s="6"/>
+    </row>
+    <row r="159" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B159" s="6"/>
+      <c r="C159" s="6"/>
+      <c r="D159" s="6"/>
+    </row>
+    <row r="160" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B160" s="6"/>
       <c r="C160" s="6"/>
       <c r="D160" s="6"/>
@@ -4518,14 +4479,14 @@
       <c r="D169" s="6"/>
     </row>
     <row r="170" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B170" s="6"/>
-      <c r="C170" s="6"/>
-      <c r="D170" s="6"/>
+      <c r="B170" s="2"/>
+      <c r="C170" s="2"/>
+      <c r="D170" s="2"/>
     </row>
     <row r="171" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B171" s="6"/>
-      <c r="C171" s="6"/>
-      <c r="D171" s="6"/>
+      <c r="B171" s="2"/>
+      <c r="C171" s="2"/>
+      <c r="D171" s="2"/>
     </row>
     <row r="172" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B172" s="2"/>
@@ -8691,16 +8652,6 @@
       <c r="B1004" s="2"/>
       <c r="C1004" s="2"/>
       <c r="D1004" s="2"/>
-    </row>
-    <row r="1005" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B1005" s="2"/>
-      <c r="C1005" s="2"/>
-      <c r="D1005" s="2"/>
-    </row>
-    <row r="1006" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B1006" s="2"/>
-      <c r="C1006" s="2"/>
-      <c r="D1006" s="2"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" gridLines="1"/>
